--- a/KBKT_auto.xlsx
+++ b/KBKT_auto.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTO_TEST\practice_automationtesting_selenium_java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.GIOINN\AUTO_selenium\practice_automationtesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8E8D2-71FB-42AF-A03E-EEE6F19D3BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="4050" windowWidth="15375" windowHeight="6870" activeTab="1" xr2:uid="{7F98C6FB-FC49-49C0-96F1-6A7613640E1B}"/>
+    <workbookView xWindow="5115" yWindow="4050" windowWidth="15375" windowHeight="6870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Shop" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -102,11 +102,46 @@
   <si>
     <t>Login with correct username and empty password</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre condition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Open the browser
+2. Enter the URL “http://practice.automationtesting.in/”
+3. Click on Shop Menu</t>
+    </r>
+  </si>
+  <si>
+    <t>Shop-Filter by price functionality</t>
+  </si>
+  <si>
+    <t>1. Adjust the filter by price between 150 to 450 rps
+2. Click on filter button
+3. View books only between 150 to 450 rps price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CEC96B-AFB3-4736-8367-2221127A5B17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -752,7 +787,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{81CE3E73-9D05-49C9-B5C5-0E816C565D92}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -760,11 +795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBCDB85-411D-4190-9636-627813B13687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +982,194 @@
     <mergeCell ref="A7:D7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{D73105F8-8373-4F6D-A288-D512251EDC7B}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KBKT_auto.xlsx
+++ b/KBKT_auto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.GIOINN\AUTO_selenium\practice_automationtesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTO_TEST\practice_automationtesting_selenium_java\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B4DC03-3AFB-4ED1-A3FD-B5E1C8AF580E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="4050" windowWidth="15375" windowHeight="6870" activeTab="2"/>
+    <workbookView xWindow="5115" yWindow="4050" windowWidth="15375" windowHeight="6870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -137,11 +138,99 @@
 2. Click on filter button
 3. View books only between 150 to 450 rps price</t>
   </si>
+  <si>
+    <t>Shop-Product Categoryes Functionality</t>
+  </si>
+  <si>
+    <t>1.Click any of the product links available in the product category
+2. User can view only that paticular product</t>
+  </si>
+  <si>
+    <t>Shop-Default Sorting Functionality</t>
+  </si>
+  <si>
+    <t>1. Click on Sort by Popularity item in Default sorting dropdown
+2. View the popular product only</t>
+  </si>
+  <si>
+    <t>4) Click on Sort by Average ratings in Default sorting dropdown
+5) Now user can view the popular products only</t>
+  </si>
+  <si>
+    <t>4) Click on Sort by Newness ratings in Default sorting dropdown
+5) Now user can view the popular products only</t>
+  </si>
+  <si>
+    <t>4) Click on Sort by Low to High Item in Default sorting dropdown
+5) Now user can view the popular products only</t>
+  </si>
+  <si>
+    <t>4) Click on Sort by High to Low Item in Default sorting dropdown
+5) Now user can view the popular products only</t>
+  </si>
+  <si>
+    <t>Shop-Read More Functionality</t>
+  </si>
+  <si>
+    <t>Shop-Sale Functionality</t>
+  </si>
+  <si>
+    <t>Shop-Add to Basket-View Basket Functionality</t>
+  </si>
+  <si>
+    <t>Shop-Add to Basket-View Basket through Functionality</t>
+  </si>
+  <si>
+    <t>Shop-Add to Basket-View Basket-Tax Functionality</t>
+  </si>
+  <si>
+    <t>4) Click on read more button in home page
+5) Read More option indicates the Out Of Stock.
+6) User cannot add the product which has read more option as it was out of stock.</t>
+  </si>
+  <si>
+    <t>4) Click on Sale written product in home page
+5) User can clearly view the actual price with old price striken for the sale written products</t>
+  </si>
+  <si>
+    <t>4) Click on the Add To Basket button which adds that book to your basket
+5) User can view that Book in the Menu item with price .
+6) Now click on View Basket link which navigates to proceed to check out page.
+7) Now user can find total and subtotal values just above the Proceed to Checkout button.
+8) The total always &lt; subtotal because taxes are added in the subtotal
+9) Now click on Proceed to Check out button which navigates to payment gateway page.
+10) User can view Billing Details,Order Details,Additional details and Payment gateway details.
+11) Now user can fill his details in billing details form and can opt any payment in the payment gateway like Direct bank transfer,cheque,cash or paypal.
+12) Now click on Place Order button to complete process
+13) On clicking place order button user completes his process where the page navigates to Order confirmation page with order details,bank details,customer details and billing details.</t>
+  </si>
+  <si>
+    <t>4) Click on the Add To Basket button which adds that book to your basket
+5) User can view that Book in the Menu item with price .
+6) Now click on Item link which navigates to proceed to check out page.
+7) Now user can find total and subtotal values just above the Proceed to Checkout button.
+8) The total always &lt; subtotal because taxes are added in the subtotal
+9) Now click on Proceed to Check out button which navigates to payment gateway page.
+10) User can view Billing Details,Order Details,Additional details and Payment gateway details.
+11) Now user can fill his details in billing details form and can opt any payment in the payment gateway like Direct bank transfer,cheque,cash or paypal.
+12) Now click on Place Order button to complete process
+13) On clicking place order button user completes his process where the page navigates to Order confirmation page
+with order details,bank details,customer details and billing details</t>
+  </si>
+  <si>
+    <t>4) Click on the Add To Basket button which adds that book to your basket
+5) User can view that Book in the Menu item with price .
+6) Now click on Item link which navigates to proceed to check out page.
+7) Now user can find total and subtotal values just above the Proceed to Checkout button.
+8) The total always &lt; subtotal because taxes are added in the subtotal
+9) The tax rate variers for India compared to other countries
+10) Tax rate for indian should be 2% and for abroad it should be 5%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -267,12 +356,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -307,6 +422,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -622,7 +746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -787,7 +911,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -795,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -982,7 +1106,7 @@
     <mergeCell ref="A7:D7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -990,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,129 +1171,138 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KBKT_auto.xlsx
+++ b/KBKT_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTO_TEST\practice_automationtesting_selenium_java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B4DC03-3AFB-4ED1-A3FD-B5E1C8AF580E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B65C0E2-7C0F-42C1-92F3-64E8D5FEB98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="4050" windowWidth="15375" windowHeight="6870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="450" windowWidth="15375" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -225,6 +225,29 @@
 8) The total always &lt; subtotal because taxes are added in the subtotal
 9) The tax rate variers for India compared to other countries
 10) Tax rate for indian should be 2% and for abroad it should be 5%</t>
+  </si>
+  <si>
+    <t>Login with password should be masked</t>
+  </si>
+  <si>
+    <t>Login-Handles case sensitive</t>
+  </si>
+  <si>
+    <t>4) Enter the password field with some characters.
+5) The password field should display the characters in asterisks or bullets such that the password is not visible on the screen</t>
+  </si>
+  <si>
+    <t>5) Enter the case changed password in the password tetxbox
+6) Now click on login button
+7) Login must fail saying incorrect username/password.</t>
+  </si>
+  <si>
+    <t>4) Enter the case changed username in username textbox
+6) Now click on login button
+7) Login successfully</t>
+  </si>
+  <si>
+    <t>Login-Authentication</t>
   </si>
 </sst>
 </file>
@@ -387,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,6 +445,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -922,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,35 +1045,47 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
@@ -1101,9 +1142,10 @@
       <c r="D24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -1117,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1229,7 @@
       <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1199,7 +1241,7 @@
       <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1251,7 @@
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +1261,7 @@
       <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1229,7 +1271,7 @@
       <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>

--- a/KBKT_auto.xlsx
+++ b/KBKT_auto.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTO_TEST\practice_automationtesting_selenium_java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.GIOINN\AUTO_selenium\practice_automationtesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B65C0E2-7C0F-42C1-92F3-64E8D5FEB98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="450" windowWidth="15375" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4815" yWindow="450" windowWidth="15375" windowHeight="10080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -86,12 +85,6 @@
     <t>Testcases</t>
   </si>
   <si>
-    <t>1. Enter registered username in username textbox
-2. Enter pass word in password textbox
-3. Click on login button
-4. User must successfully login to the web page</t>
-  </si>
-  <si>
     <t>Login with incorrect username and incorrect password</t>
   </si>
   <si>
@@ -249,11 +242,52 @@
   <si>
     <t>Login-Authentication</t>
   </si>
+  <si>
+    <t>4) Enter the case changed username in username textbox
+5) Enter the case chenged password in the password tetxbox
+6) Now click on login button
+7) Once your are logged in, sign out of the site
+8) Now press back button
+9) User shouldn’t be signed in to his account rather a general webpage must be visible</t>
+  </si>
+  <si>
+    <t>4) Enter incorrect username in username textbox
+5) Enter incorrect password in password textbox.
+6) Click on login button
+7) Proper error must be displayed(ie Invalid username) and prompt to enter login again</t>
+  </si>
+  <si>
+    <t>4) Enter valid username in username textbox
+5) Now enter empty password in the password textbox
+6) Click on login button.
+7) Proper error must be displayed(ie Invalid password) and prompt to enter login again</t>
+  </si>
+  <si>
+    <t>4) Enter empty username in username textbox
+5) Now enter valid password in the password textbox
+6) Click on login button.
+7) Proper error must be displayed(ie Invalid username) and prompt to enter login again</t>
+  </si>
+  <si>
+    <t>4) Enter empty username in username textbox
+5) Now enter valid password in the password textbox
+6) Click on login button.
+7) Proper error must be displayed(ie required username) and prompt to enter login again</t>
+  </si>
+  <si>
+    <t>4) Enter registered username in username textbox
+5) Enter password in password textbox
+6) Click on login button
+7) User must successfully login to the web page</t>
+  </si>
+  <si>
+    <t>7. Login successfully. Visible text: "Hello {username} (not {username} ? Sign out)"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -940,7 +974,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -948,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,48 +1035,58 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1050,10 +1094,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1062,10 +1106,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -1075,71 +1119,21 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1148,7 +1142,7 @@
     <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1156,10 +1150,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1195,7 +1189,7 @@
     </row>
     <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1206,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -1218,10 +1212,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -1230,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -1243,7 +1237,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -1253,7 +1247,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -1263,7 +1257,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1273,7 +1267,7 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -1282,10 +1276,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -1294,10 +1288,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -1306,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -1318,10 +1312,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -1330,10 +1324,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -1344,7 +1338,7 @@
     <mergeCell ref="B10:B14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KBKT_auto.xlsx
+++ b/KBKT_auto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.GIOINN\AUTO_selenium\practice_automationtesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTO_TEST\practice_automationtesting_selenium_java\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C7ED0-147F-4561-A676-7AA3FA2F95F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4815" yWindow="450" windowWidth="15375" windowHeight="10080" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="840" windowWidth="15375" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -240,17 +241,6 @@
 7) Login successfully</t>
   </si>
   <si>
-    <t>Login-Authentication</t>
-  </si>
-  <si>
-    <t>4) Enter the case changed username in username textbox
-5) Enter the case chenged password in the password tetxbox
-6) Now click on login button
-7) Once your are logged in, sign out of the site
-8) Now press back button
-9) User shouldn’t be signed in to his account rather a general webpage must be visible</t>
-  </si>
-  <si>
     <t>4) Enter incorrect username in username textbox
 5) Enter incorrect password in password textbox.
 6) Click on login button
@@ -287,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -809,7 +799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -974,7 +964,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -982,11 +972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,10 +1025,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1049,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -1061,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -1073,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -1085,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -1122,18 +1112,6 @@
         <v>39</v>
       </c>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1142,7 +1120,7 @@
     <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1150,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1338,7 +1316,7 @@
     <mergeCell ref="B10:B14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KBKT_auto.xlsx
+++ b/KBKT_auto.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTO_TEST\practice_automationtesting_selenium_java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.GIOINN\AUTO_selenium\practice_automationtesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C7ED0-147F-4561-A676-7AA3FA2F95F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="840" windowWidth="15375" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="840" windowWidth="15375" windowHeight="10080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Shop" sheetId="3" r:id="rId3"/>
+    <sheet name="Register" sheetId="4" r:id="rId3"/>
+    <sheet name="Shop" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -273,11 +273,17 @@
   <si>
     <t>7. Login successfully. Visible text: "Hello {username} (not {username} ? Sign out)"</t>
   </si>
+  <si>
+    <t>4) Enter registered Email Address in Email-Address textbox
+5) Enter your own password in password textbox
+6) Click on Register button
+7) User will be registered successfully and will be navigated to the Home page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,7 +805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -964,7 +970,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -972,11 +978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1126,7 @@
     <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1128,7 +1134,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1316,7 +1475,7 @@
     <mergeCell ref="B10:B14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/KBKT_auto.xlsx
+++ b/KBKT_auto.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.GIOINN\AUTO_selenium\practice_automationtesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTO_TEST\practice_automationtesting_selenium_java\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DA8697-CC85-490D-80B9-837ABFB75617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="840" windowWidth="15375" windowHeight="10080" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Register" sheetId="4" r:id="rId3"/>
-    <sheet name="Shop" sheetId="3" r:id="rId4"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="Shop" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,21 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Tên testcase</t>
-  </si>
-  <si>
-    <t>Tiền điều kiện</t>
-  </si>
-  <si>
-    <t>Bước thực hiện</t>
-  </si>
-  <si>
-    <t>Kết quả mong muốn</t>
   </si>
   <si>
     <t>http://practice.automationtesting.in/</t>
@@ -273,17 +260,11 @@
   <si>
     <t>7. Login successfully. Visible text: "Hello {username} (not {username} ? Sign out)"</t>
   </si>
-  <si>
-    <t>4) Enter registered Email Address in Email-Address textbox
-5) Enter your own password in password textbox
-6) Click on Register button
-7) User will be registered successfully and will be navigated to the Home page</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -440,12 +427,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,12 +439,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,6 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,180 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -994,130 +801,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>7</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1126,19 +933,19 @@
     <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,323 +957,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>7</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>8</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B14:B15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>4</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>6</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>7</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1475,7 +1129,7 @@
     <mergeCell ref="B10:B14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
